--- a/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.1120898332407</v>
+        <v>89.66089118400834</v>
       </c>
       <c r="D2" t="n">
-        <v>2.581638097089523</v>
+        <v>3.099481290112218</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.16364479550987</v>
+        <v>89.22403523541611</v>
       </c>
       <c r="D3" t="n">
-        <v>3.414703274803868</v>
+        <v>2.713721862611713</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.65168616685455</v>
+        <v>88.5139619544067</v>
       </c>
       <c r="D4" t="n">
-        <v>3.059372827673815</v>
+        <v>3.260248321337091</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.10294376632345</v>
+        <v>86.43423950929511</v>
       </c>
       <c r="D5" t="n">
-        <v>3.390665685390158</v>
+        <v>3.239114252786128</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.38570189216749</v>
+        <v>86.12585423876189</v>
       </c>
       <c r="D6" t="n">
-        <v>2.992078494847254</v>
+        <v>3.151828148169111</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.33332673064614</v>
+        <v>85.50648853262898</v>
       </c>
       <c r="D7" t="n">
-        <v>3.158636155778783</v>
+        <v>3.070974977994467</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.21932648049089</v>
+        <v>83.5659659696304</v>
       </c>
       <c r="D8" t="n">
-        <v>3.241377117489096</v>
+        <v>3.26466044311329</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.82341124506149</v>
+        <v>82.76251230761694</v>
       </c>
       <c r="D9" t="n">
-        <v>3.016627422194849</v>
+        <v>3.155219507273839</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95312972502853</v>
+        <v>82.40184767188639</v>
       </c>
       <c r="D10" t="n">
-        <v>3.313422708487326</v>
+        <v>2.804131105737167</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.4671145607705</v>
+        <v>80.71654269179909</v>
       </c>
       <c r="D11" t="n">
-        <v>3.121875686670901</v>
+        <v>3.256022557840442</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.35676267660263</v>
+        <v>79.35202837265659</v>
       </c>
       <c r="D12" t="n">
-        <v>3.45506439745359</v>
+        <v>3.049843778558147</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.98071486865442</v>
+        <v>79.66571478662138</v>
       </c>
       <c r="D13" t="n">
-        <v>3.292586049645994</v>
+        <v>3.46658812563719</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.05854311195974</v>
+        <v>78.25162360184152</v>
       </c>
       <c r="D14" t="n">
-        <v>3.419717432524282</v>
+        <v>3.309936742297019</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.2146241172092</v>
+        <v>76.55223601309197</v>
       </c>
       <c r="D15" t="n">
-        <v>3.368380413738925</v>
+        <v>3.095170223686052</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88554075995397</v>
+        <v>75.83811005333673</v>
       </c>
       <c r="D16" t="n">
-        <v>3.311339432487487</v>
+        <v>3.401108729296898</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.10138565074587</v>
+        <v>75.61124450410338</v>
       </c>
       <c r="D17" t="n">
-        <v>3.129674578820069</v>
+        <v>3.437124662194828</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.94839891337868</v>
+        <v>73.49881377895457</v>
       </c>
       <c r="D18" t="n">
-        <v>3.413441683147821</v>
+        <v>3.07923700216544</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.71477336289294</v>
+        <v>72.73488264557081</v>
       </c>
       <c r="D19" t="n">
-        <v>2.938339510682491</v>
+        <v>3.484549149633996</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.12764559277886</v>
+        <v>72.38743006822075</v>
       </c>
       <c r="D20" t="n">
-        <v>2.941351646599769</v>
+        <v>3.11094371002048</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.51827639973996</v>
+        <v>71.30818561200444</v>
       </c>
       <c r="D21" t="n">
-        <v>3.038281417028247</v>
+        <v>3.357953808786024</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.72554379468863</v>
+        <v>69.45807184613329</v>
       </c>
       <c r="D22" t="n">
-        <v>3.268153905832478</v>
+        <v>3.243582503720733</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00677329011178</v>
+        <v>69.30291588558485</v>
       </c>
       <c r="D23" t="n">
-        <v>3.510441477592158</v>
+        <v>3.137134283308598</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.80291847005245</v>
+        <v>67.64988234698646</v>
       </c>
       <c r="D24" t="n">
-        <v>3.099864449020892</v>
+        <v>3.337455893415565</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.45637049753694</v>
+        <v>66.96162847400656</v>
       </c>
       <c r="D25" t="n">
-        <v>3.177121904514908</v>
+        <v>3.086559796126763</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.96623304707218</v>
+        <v>65.6784135965752</v>
       </c>
       <c r="D26" t="n">
-        <v>3.135513799808476</v>
+        <v>3.159196667322434</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.48983905105737</v>
+        <v>64.85559543320487</v>
       </c>
       <c r="D27" t="n">
-        <v>2.971911687086628</v>
+        <v>3.422393948174407</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.95903646191709</v>
+        <v>64.39888867328983</v>
       </c>
       <c r="D28" t="n">
-        <v>3.302950726904152</v>
+        <v>3.044634168577911</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.46511365707677</v>
+        <v>63.21471967577643</v>
       </c>
       <c r="D29" t="n">
-        <v>3.306376478751135</v>
+        <v>3.08976155873443</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.46151670403898</v>
+        <v>62.38007881866292</v>
       </c>
       <c r="D30" t="n">
-        <v>3.247897156237606</v>
+        <v>3.037540881235253</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.87280527656617</v>
+        <v>61.49860164989416</v>
       </c>
       <c r="D31" t="n">
-        <v>3.202004611926871</v>
+        <v>3.633128165613265</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.14862547015436</v>
+        <v>60.23396138067471</v>
       </c>
       <c r="D32" t="n">
-        <v>3.293243912213951</v>
+        <v>3.218303175220063</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.68252745429774</v>
+        <v>59.55612763958123</v>
       </c>
       <c r="D33" t="n">
-        <v>2.892351973572679</v>
+        <v>3.539467523377824</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.92852700256053</v>
+        <v>57.76892001924439</v>
       </c>
       <c r="D34" t="n">
-        <v>3.669822495330928</v>
+        <v>3.274524966844509</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.1577036168041</v>
+        <v>56.57440617301002</v>
       </c>
       <c r="D35" t="n">
-        <v>3.280837664358396</v>
+        <v>3.471824695954359</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.91683152852157</v>
+        <v>56.02347055455753</v>
       </c>
       <c r="D36" t="n">
-        <v>3.423209454312746</v>
+        <v>3.184711187829401</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.33796315449591</v>
+        <v>55.06230382810872</v>
       </c>
       <c r="D37" t="n">
-        <v>3.226219356085965</v>
+        <v>3.382118804476069</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.38801694556219</v>
+        <v>54.22215476783497</v>
       </c>
       <c r="D38" t="n">
-        <v>3.507774168982661</v>
+        <v>3.120203577345527</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.92946660040798</v>
+        <v>52.84958851572296</v>
       </c>
       <c r="D39" t="n">
-        <v>3.617625616657794</v>
+        <v>2.977282493954396</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.86464417234643</v>
+        <v>51.77534849918136</v>
       </c>
       <c r="D40" t="n">
-        <v>3.642619909814697</v>
+        <v>3.263370145569604</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.18199812584558</v>
+        <v>51.26793964356748</v>
       </c>
       <c r="D41" t="n">
-        <v>3.535073645725778</v>
+        <v>3.668276848993742</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.95957794337826</v>
+        <v>50.03979203344252</v>
       </c>
       <c r="D42" t="n">
-        <v>3.25006991973794</v>
+        <v>3.517918833116454</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.54623587687006</v>
+        <v>49.26684375969246</v>
       </c>
       <c r="D43" t="n">
-        <v>3.597399379151883</v>
+        <v>3.583965508679089</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.92289363022387</v>
+        <v>47.36358178884139</v>
       </c>
       <c r="D44" t="n">
-        <v>3.546482387576619</v>
+        <v>2.971473553902394</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.24977092117427</v>
+        <v>46.54492904446891</v>
       </c>
       <c r="D45" t="n">
-        <v>3.173123401569639</v>
+        <v>3.499367361866724</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.85974130803495</v>
+        <v>46.18192936578505</v>
       </c>
       <c r="D46" t="n">
-        <v>3.359395315336706</v>
+        <v>3.616907898374525</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.68676270663983</v>
+        <v>44.94012631232292</v>
       </c>
       <c r="D47" t="n">
-        <v>3.366863880694745</v>
+        <v>3.373713708685402</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.83235933084532</v>
+        <v>44.00904672321641</v>
       </c>
       <c r="D48" t="n">
-        <v>3.111296182650619</v>
+        <v>3.272930999992574</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.88679510278964</v>
+        <v>43.80234437805968</v>
       </c>
       <c r="D49" t="n">
-        <v>3.432987266264786</v>
+        <v>3.543513849163574</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.26654715678581</v>
+        <v>41.73096248072248</v>
       </c>
       <c r="D50" t="n">
-        <v>3.367448264903139</v>
+        <v>3.757229655129965</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.01927024915062</v>
+        <v>41.44044636111803</v>
       </c>
       <c r="D51" t="n">
-        <v>3.525968365607268</v>
+        <v>3.604775350323115</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.3470091295989</v>
+        <v>40.43127517122786</v>
       </c>
       <c r="D52" t="n">
-        <v>3.720919107234391</v>
+        <v>3.814785624601284</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.09721758360186</v>
+        <v>38.93336453938184</v>
       </c>
       <c r="D53" t="n">
-        <v>3.300761042738818</v>
+        <v>3.265022707002292</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.51144686653718</v>
+        <v>38.38895013578204</v>
       </c>
       <c r="D54" t="n">
-        <v>3.764509204359816</v>
+        <v>3.040143342678901</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.53794300013302</v>
+        <v>36.53086108494627</v>
       </c>
       <c r="D55" t="n">
-        <v>3.400238197295349</v>
+        <v>3.688387912847457</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.87120362323548</v>
+        <v>35.99432836369946</v>
       </c>
       <c r="D56" t="n">
-        <v>4.16137556389401</v>
+        <v>3.490808859814152</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.09699755996943</v>
+        <v>35.16725925779677</v>
       </c>
       <c r="D57" t="n">
-        <v>3.887802131680761</v>
+        <v>3.135410798195903</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.21221908955942</v>
+        <v>34.49940743216854</v>
       </c>
       <c r="D58" t="n">
-        <v>3.352793889961651</v>
+        <v>3.833016925601849</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.90594315896073</v>
+        <v>33.28532344731997</v>
       </c>
       <c r="D59" t="n">
-        <v>3.746801363673814</v>
+        <v>3.82027107979073</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.68245433918316</v>
+        <v>31.48215592605281</v>
       </c>
       <c r="D60" t="n">
-        <v>3.26576614520594</v>
+        <v>3.331563230735001</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87656306563357</v>
+        <v>31.24771367787863</v>
       </c>
       <c r="D61" t="n">
-        <v>3.261077330341028</v>
+        <v>3.456108883259578</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.62678678566969</v>
+        <v>30.06712174140493</v>
       </c>
       <c r="D62" t="n">
-        <v>3.691831010072002</v>
+        <v>3.25442439103928</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0719495493277</v>
+        <v>29.15717072991616</v>
       </c>
       <c r="D63" t="n">
-        <v>3.710452400641411</v>
+        <v>3.54538235783529</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.0404643243152</v>
+        <v>27.84244280704339</v>
       </c>
       <c r="D64" t="n">
-        <v>3.73082573752015</v>
+        <v>3.395191142949515</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.1642135944522</v>
+        <v>26.81794353089878</v>
       </c>
       <c r="D65" t="n">
-        <v>3.451286727382774</v>
+        <v>3.58353308523256</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.23826390814842</v>
+        <v>25.82946354567419</v>
       </c>
       <c r="D66" t="n">
-        <v>3.443651272184455</v>
+        <v>3.551429948293868</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.40640302856796</v>
+        <v>25.13153595367185</v>
       </c>
       <c r="D67" t="n">
-        <v>3.631855790466576</v>
+        <v>3.586732794112832</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.86879517812977</v>
+        <v>23.16482565780231</v>
       </c>
       <c r="D68" t="n">
-        <v>3.189810368599192</v>
+        <v>3.9731991780357</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.04503957899039</v>
+        <v>22.72994033911721</v>
       </c>
       <c r="D69" t="n">
-        <v>3.43774569422996</v>
+        <v>3.119053717450443</v>
       </c>
     </row>
   </sheetData>
